--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_15-48.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_15-48.xlsx
@@ -86,6 +86,12 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -198,9 +204,6 @@
   </si>
   <si>
     <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -1061,7 +1064,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1081,13 +1084,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1099,7 +1102,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1107,13 +1110,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1133,13 +1136,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1151,7 +1154,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1159,13 +1162,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1177,7 +1180,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1185,17 +1188,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1203,7 +1206,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1211,17 +1214,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1243,11 +1246,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1263,17 +1266,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>15.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1281,7 +1284,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1289,13 +1292,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1307,7 +1310,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1315,13 +1318,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1333,7 +1336,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1347,7 +1350,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1359,7 +1362,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1367,17 +1370,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1393,13 +1396,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1411,7 +1414,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1419,17 +1422,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1445,13 +1448,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1463,7 +1466,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1471,17 +1474,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1497,17 +1500,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1515,7 +1518,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1523,17 +1526,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1549,17 +1552,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1567,7 +1570,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1575,17 +1578,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1593,7 +1596,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1601,17 +1604,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1627,13 +1630,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1645,7 +1648,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1653,17 +1656,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>65.75</v>
+        <v>23</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1671,7 +1674,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1685,7 +1688,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>59</v>
+        <v>65.75</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1697,7 +1700,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1705,17 +1708,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1723,7 +1726,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1731,13 +1734,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1763,11 +1766,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1783,13 +1786,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1809,13 +1812,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1827,7 +1830,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1835,17 +1838,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1853,7 +1856,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1861,17 +1864,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1879,7 +1882,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1887,13 +1890,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1913,13 +1916,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1931,7 +1934,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1939,13 +1942,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1957,7 +1960,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1965,13 +1968,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1991,13 +1994,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2009,7 +2012,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2017,13 +2020,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2043,51 +2046,77 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="K51" s="10">
-        <v>2327.71</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="11">
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c t="s" r="B51" s="7">
         <v>82</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c t="s" r="F52" s="12">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c t="s" r="H51" s="8">
+        <v>36</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9">
+        <v>30</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c t="s" r="N51" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="26.25" customHeight="1">
+      <c r="K52" s="10">
+        <v>2426.71</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="11">
         <v>83</v>
       </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c t="s" r="I52" s="14">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c t="s" r="F53" s="12">
         <v>84</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+      <c t="s" r="I53" s="14">
+        <v>85</v>
+      </c>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="155">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2236,10 +2265,13 @@
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:N53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
